--- a/FloatingCouponBond.xlsx
+++ b/FloatingCouponBond.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Today</t>
   </si>
@@ -56,15 +56,28 @@
   </si>
   <si>
     <t>Recovery rate</t>
+  </si>
+  <si>
+    <t>Forward Libor Curve</t>
+  </si>
+  <si>
+    <t>Fixing</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Libor tenor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -146,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -155,18 +168,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -213,6 +222,32 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -261,10 +296,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -277,26 +315,24 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -593,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K44"/>
+  <dimension ref="B2:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,646 +647,939 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="5">
         <v>41578</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="30">
+        <v>6</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="E5" s="20">
+        <v>4972284.0199999996</v>
+      </c>
+      <c r="F5" s="13">
+        <v>40238</v>
+      </c>
+      <c r="G5" s="13">
+        <v>44409</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="1" t="s">
+      <c r="C6" s="12"/>
+      <c r="E6" s="20">
+        <v>7344328.2699999996</v>
+      </c>
+      <c r="F6" s="13">
+        <v>39995</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44743</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3</v>
+      </c>
+      <c r="I6" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>7172290.1900000004</v>
+      </c>
+      <c r="F7" s="13">
+        <v>41275</v>
+      </c>
+      <c r="G7" s="13">
+        <v>42979</v>
+      </c>
+      <c r="H7" s="14">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="10">
+        <v>41993</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.49E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>7065224.2300000004</v>
+      </c>
+      <c r="F8" s="13">
+        <v>40238</v>
+      </c>
+      <c r="G8" s="13">
+        <v>41913</v>
+      </c>
+      <c r="H8" s="14">
+        <v>6</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="10">
+        <v>42358</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E9" s="20">
+        <v>5256452.1399999997</v>
+      </c>
+      <c r="F9" s="13">
+        <v>40725</v>
+      </c>
+      <c r="G9" s="13">
+        <v>42461</v>
+      </c>
+      <c r="H9" s="14">
+        <v>6</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="10">
+        <v>42724</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2689680.89</v>
+      </c>
+      <c r="F10" s="13">
+        <v>40057</v>
+      </c>
+      <c r="G10" s="13">
+        <v>45474</v>
+      </c>
+      <c r="H10" s="14">
+        <v>6</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="10">
+        <v>43454</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>3593518.71</v>
+      </c>
+      <c r="F11" s="13">
+        <v>40360</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43497</v>
+      </c>
+      <c r="H11" s="14">
+        <v>12</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="10">
+        <v>41628</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>6993589.5300000003</v>
+      </c>
+      <c r="F12" s="13">
+        <v>40544</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43405</v>
+      </c>
+      <c r="H12" s="14">
+        <v>12</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="11">
+        <v>48933</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>6684377.5199999996</v>
+      </c>
+      <c r="F13" s="13">
+        <v>40057</v>
+      </c>
+      <c r="G13" s="13">
+        <v>44440</v>
+      </c>
+      <c r="H13" s="14">
+        <v>12</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="E14" s="20">
+        <v>6896199.04</v>
+      </c>
+      <c r="F14" s="13">
+        <v>40360</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43405</v>
+      </c>
+      <c r="H14" s="14">
+        <v>12</v>
+      </c>
+      <c r="I14" s="15">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="E15" s="20">
+        <v>2587984.6</v>
+      </c>
+      <c r="F15" s="13">
+        <v>40817</v>
+      </c>
+      <c r="G15" s="13">
+        <v>44105</v>
+      </c>
+      <c r="H15" s="14">
+        <v>12</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3621656.1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>41061</v>
+      </c>
+      <c r="G16" s="13">
+        <v>42552</v>
+      </c>
+      <c r="H16" s="14">
+        <v>6</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1.06E-3</v>
+      </c>
+      <c r="E17" s="20">
+        <v>3146567.47</v>
+      </c>
+      <c r="F17" s="13">
+        <v>40695</v>
+      </c>
+      <c r="G17" s="13">
+        <v>44621</v>
+      </c>
+      <c r="H17" s="14">
+        <v>6</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.14E-3</v>
+      </c>
+      <c r="E18" s="20">
+        <v>6452721.6100000003</v>
+      </c>
+      <c r="F18" s="13">
+        <v>39904</v>
+      </c>
+      <c r="G18" s="13">
+        <v>43556</v>
+      </c>
+      <c r="H18" s="14">
+        <v>3</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1.15E-3</v>
+      </c>
+      <c r="E19" s="22">
+        <v>3418346.24</v>
+      </c>
+      <c r="F19" s="23">
+        <v>40299</v>
+      </c>
+      <c r="G19" s="23">
+        <v>42370</v>
+      </c>
+      <c r="H19" s="24">
+        <v>3</v>
+      </c>
+      <c r="I19" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1.17E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="6">
+        <v>5</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="6">
+        <v>6</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1.2099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="6">
+        <v>7</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1.2199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="6">
+        <v>8</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.24E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="6">
+        <v>9</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1.2800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="6">
         <v>10</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="C26" s="18">
+        <v>1.31E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="6">
+        <v>11</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="6">
         <v>12</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="21">
-        <v>4972284.0199999996</v>
-      </c>
-      <c r="F5" s="10">
-        <v>40238</v>
-      </c>
-      <c r="G5" s="10">
-        <v>44409</v>
-      </c>
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
-      <c r="I5" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="7">
-        <v>41993</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.49E-2</v>
-      </c>
-      <c r="E6" s="21">
-        <v>7344328.2699999996</v>
-      </c>
-      <c r="F6" s="10">
-        <v>39995</v>
-      </c>
-      <c r="G6" s="10">
-        <v>44743</v>
-      </c>
-      <c r="H6" s="11">
-        <v>3</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="7">
-        <v>42358</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E7" s="21">
-        <v>7172290.1900000004</v>
-      </c>
-      <c r="F7" s="10">
-        <v>41275</v>
-      </c>
-      <c r="G7" s="10">
-        <v>42979</v>
-      </c>
-      <c r="H7" s="11">
-        <v>6</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="7">
-        <v>42724</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="E8" s="21">
-        <v>7065224.2300000004</v>
-      </c>
-      <c r="F8" s="10">
-        <v>40238</v>
-      </c>
-      <c r="G8" s="10">
-        <v>41913</v>
-      </c>
-      <c r="H8" s="11">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="7">
-        <v>43454</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="E9" s="21">
-        <v>5256452.1399999997</v>
-      </c>
-      <c r="F9" s="10">
-        <v>40725</v>
-      </c>
-      <c r="G9" s="10">
-        <v>42461</v>
-      </c>
-      <c r="H9" s="11">
-        <v>6</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="7">
-        <v>41628</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.83E-2</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2689680.89</v>
-      </c>
-      <c r="F10" s="10">
-        <v>40057</v>
-      </c>
-      <c r="G10" s="10">
-        <v>45474</v>
-      </c>
-      <c r="H10" s="11">
-        <v>6</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="8">
-        <v>48933</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E11" s="21">
-        <v>3593518.71</v>
-      </c>
-      <c r="F11" s="10">
-        <v>40360</v>
-      </c>
-      <c r="G11" s="10">
-        <v>43497</v>
-      </c>
-      <c r="H11" s="11">
-        <v>12</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="E12" s="21">
-        <v>6993589.5300000003</v>
-      </c>
-      <c r="F12" s="10">
-        <v>40544</v>
-      </c>
-      <c r="G12" s="10">
-        <v>43405</v>
-      </c>
-      <c r="H12" s="11">
-        <v>12</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="E13" s="21">
-        <v>6684377.5199999996</v>
-      </c>
-      <c r="F13" s="10">
-        <v>40057</v>
-      </c>
-      <c r="G13" s="10">
-        <v>44440</v>
-      </c>
-      <c r="H13" s="11">
-        <v>12</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
-        <v>6896199.04</v>
-      </c>
-      <c r="F14" s="10">
-        <v>40360</v>
-      </c>
-      <c r="G14" s="10">
-        <v>43405</v>
-      </c>
-      <c r="H14" s="11">
-        <v>12</v>
-      </c>
-      <c r="I14" s="12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1.06E-3</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2587984.6</v>
-      </c>
-      <c r="F15" s="10">
-        <v>40817</v>
-      </c>
-      <c r="G15" s="10">
-        <v>44105</v>
-      </c>
-      <c r="H15" s="11">
-        <v>12</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1.14E-3</v>
-      </c>
-      <c r="E16" s="21">
-        <v>3621656.1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>41061</v>
-      </c>
-      <c r="G16" s="10">
-        <v>42552</v>
-      </c>
-      <c r="H16" s="11">
-        <v>6</v>
-      </c>
-      <c r="I16" s="12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="3">
-        <v>3</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1.15E-3</v>
-      </c>
-      <c r="E17" s="21">
-        <v>3146567.47</v>
-      </c>
-      <c r="F17" s="10">
-        <v>40695</v>
-      </c>
-      <c r="G17" s="10">
-        <v>44621</v>
-      </c>
-      <c r="H17" s="11">
-        <v>6</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="3">
-        <v>4</v>
-      </c>
-      <c r="C18" s="17">
-        <v>1.17E-3</v>
-      </c>
-      <c r="E18" s="21">
-        <v>6452721.6100000003</v>
-      </c>
-      <c r="F18" s="10">
-        <v>39904</v>
-      </c>
-      <c r="G18" s="10">
-        <v>43556</v>
-      </c>
-      <c r="H18" s="11">
-        <v>3</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="3">
-        <v>5</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1.1900000000000001E-3</v>
-      </c>
-      <c r="E19" s="23">
-        <v>3418346.24</v>
-      </c>
-      <c r="F19" s="24">
-        <v>40299</v>
-      </c>
-      <c r="G19" s="24">
-        <v>42370</v>
-      </c>
-      <c r="H19" s="25">
-        <v>3</v>
-      </c>
-      <c r="I19" s="26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J19" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="3">
-        <v>6</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1.2099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="3">
-        <v>7</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1.2199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="3">
-        <v>8</v>
-      </c>
-      <c r="C22" s="17">
-        <v>1.24E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="3">
-        <v>9</v>
-      </c>
-      <c r="C23" s="17">
-        <v>1.2800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="3">
-        <v>10</v>
-      </c>
-      <c r="C24" s="17">
-        <v>1.31E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="3">
-        <v>11</v>
-      </c>
-      <c r="C25" s="17">
-        <v>1.3500000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="3">
-        <v>12</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="C28" s="18">
         <v>1.3799999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="3">
+    <row r="29" spans="2:11">
+      <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C29" s="18">
         <v>1.5200000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="3">
+    <row r="30" spans="2:11">
+      <c r="B30" s="6">
         <v>18</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C30" s="18">
         <v>1.66E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="3">
+    <row r="31" spans="2:11">
+      <c r="B31" s="6">
         <v>21</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C31" s="18">
         <v>1.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="3">
+    <row r="32" spans="2:11">
+      <c r="B32" s="6">
         <v>24</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C32" s="18">
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="3">
+    <row r="33" spans="2:3">
+      <c r="B33" s="6">
         <v>36</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C33" s="18">
         <v>3.4399999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="3">
+    <row r="34" spans="2:3">
+      <c r="B34" s="6">
         <v>48</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C34" s="18">
         <v>5.4300000000000008E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="3">
+    <row r="35" spans="2:3">
+      <c r="B35" s="6">
         <v>60</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C35" s="18">
         <v>7.5599999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="3">
+    <row r="36" spans="2:3">
+      <c r="B36" s="6">
         <v>72</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C36" s="18">
         <v>9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="3">
+    <row r="37" spans="2:3">
+      <c r="B37" s="6">
         <v>84</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C37" s="18">
         <v>1.162E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="3">
+    <row r="38" spans="2:3">
+      <c r="B38" s="6">
         <v>96</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C38" s="18">
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="3">
+    <row r="39" spans="2:3">
+      <c r="B39" s="6">
         <v>108</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C39" s="18">
         <v>1.502E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="3">
+    <row r="40" spans="2:3">
+      <c r="B40" s="6">
         <v>120</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C40" s="18">
         <v>1.6490000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="3">
+    <row r="41" spans="2:3">
+      <c r="B41" s="6">
         <v>132</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C41" s="18">
         <v>1.7760000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="3">
+    <row r="42" spans="2:3">
+      <c r="B42" s="6">
         <v>144</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C42" s="18">
         <v>1.8880000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="3">
+    <row r="43" spans="2:3">
+      <c r="B43" s="6">
         <v>180</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C43" s="18">
         <v>2.137E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="3">
+    <row r="44" spans="2:3">
+      <c r="B44" s="6">
         <v>240</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C44" s="18">
         <v>2.3220000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="3">
+    <row r="45" spans="2:3">
+      <c r="B45" s="6">
         <v>300</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C45" s="18">
         <v>2.3890000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="5">
+    <row r="46" spans="2:3">
+      <c r="B46" s="8">
         <v>360</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C46" s="19">
         <v>2.4160000000000001E-2</v>
       </c>
     </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="31"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="10">
+        <f>today</f>
+        <v>41578</v>
+      </c>
+      <c r="C50" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="10">
+        <f>EDATE(B50,6)</f>
+        <v>41759</v>
+      </c>
+      <c r="C51" s="18">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="10">
+        <f t="shared" ref="B52:B79" si="0">EDATE(B51,6)</f>
+        <v>41942</v>
+      </c>
+      <c r="C52" s="18">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="10">
+        <f t="shared" si="0"/>
+        <v>42124</v>
+      </c>
+      <c r="C53" s="18">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="10">
+        <f t="shared" si="0"/>
+        <v>42307</v>
+      </c>
+      <c r="C54" s="18">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="10">
+        <f t="shared" si="0"/>
+        <v>42490</v>
+      </c>
+      <c r="C55" s="18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="10">
+        <f t="shared" si="0"/>
+        <v>42673</v>
+      </c>
+      <c r="C56" s="18">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="10">
+        <f t="shared" si="0"/>
+        <v>42855</v>
+      </c>
+      <c r="C57" s="18">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="10">
+        <f t="shared" si="0"/>
+        <v>43038</v>
+      </c>
+      <c r="C58" s="18">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="10">
+        <f t="shared" si="0"/>
+        <v>43220</v>
+      </c>
+      <c r="C59" s="18">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="10">
+        <f t="shared" si="0"/>
+        <v>43403</v>
+      </c>
+      <c r="C60" s="18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="10">
+        <f t="shared" si="0"/>
+        <v>43585</v>
+      </c>
+      <c r="C61" s="18">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="10">
+        <f t="shared" si="0"/>
+        <v>43768</v>
+      </c>
+      <c r="C62" s="18">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="10">
+        <f t="shared" si="0"/>
+        <v>43951</v>
+      </c>
+      <c r="C63" s="18">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="10">
+        <f t="shared" si="0"/>
+        <v>44134</v>
+      </c>
+      <c r="C64" s="18">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="10">
+        <f t="shared" si="0"/>
+        <v>44316</v>
+      </c>
+      <c r="C65" s="18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="10">
+        <f t="shared" si="0"/>
+        <v>44499</v>
+      </c>
+      <c r="C66" s="18">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="10">
+        <f t="shared" si="0"/>
+        <v>44681</v>
+      </c>
+      <c r="C67" s="18">
+        <v>1.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="10">
+        <f t="shared" si="0"/>
+        <v>44864</v>
+      </c>
+      <c r="C68" s="18">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="10">
+        <f t="shared" si="0"/>
+        <v>45046</v>
+      </c>
+      <c r="C69" s="18">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="10">
+        <f t="shared" si="0"/>
+        <v>45229</v>
+      </c>
+      <c r="C70" s="18">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="10">
+        <f t="shared" si="0"/>
+        <v>45412</v>
+      </c>
+      <c r="C71" s="18">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="10">
+        <f t="shared" si="0"/>
+        <v>45595</v>
+      </c>
+      <c r="C72" s="18">
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="10">
+        <f t="shared" si="0"/>
+        <v>45777</v>
+      </c>
+      <c r="C73" s="18">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="10">
+        <f t="shared" si="0"/>
+        <v>45960</v>
+      </c>
+      <c r="C74" s="18">
+        <v>2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="10">
+        <f t="shared" si="0"/>
+        <v>46142</v>
+      </c>
+      <c r="C75" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="10">
+        <f t="shared" si="0"/>
+        <v>46325</v>
+      </c>
+      <c r="C76" s="18">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="10">
+        <f t="shared" si="0"/>
+        <v>46507</v>
+      </c>
+      <c r="C77" s="18">
+        <v>2.6599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="10">
+        <f t="shared" si="0"/>
+        <v>46690</v>
+      </c>
+      <c r="C78" s="18">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="10">
+        <f t="shared" si="0"/>
+        <v>46873</v>
+      </c>
+      <c r="C79" s="18">
+        <v>2.8199999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/FloatingCouponBond.xlsx
+++ b/FloatingCouponBond.xlsx
@@ -1,23 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="18075" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="FixedCouponBond" sheetId="1" r:id="rId1"/>
+    <sheet name="FloatingCouponBond" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="today">FixedCouponBond!$C$2</definedName>
+    <definedName name="today">FloatingCouponBond!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Barbara Grilli Leonulli</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This coupon is the coupon that the bond will pay at the first payment date occorring after "today". It is know because the libor has already fixed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The coupon is of the form: 
+tau * (Libor + Margin)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Today</t>
   </si>
@@ -43,12 +82,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Coupon Frequency</t>
-  </si>
-  <si>
-    <t>Coupon</t>
-  </si>
-  <si>
     <t>Nominal</t>
   </si>
   <si>
@@ -68,6 +101,18 @@
   </si>
   <si>
     <t>Libor tenor</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Current coupon</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>NDP</t>
   </si>
 </sst>
 </file>
@@ -75,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +177,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -159,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -290,13 +350,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -304,40 +384,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,7 +437,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -629,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K79"/>
+  <dimension ref="A2:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,7 +738,7 @@
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,434 +746,436 @@
         <v>41578</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="1:11">
+      <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="29">
+        <v>6</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="30">
-        <v>6</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="E5" s="20">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="39"/>
+      <c r="E5" s="33">
         <v>4972284.0199999996</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="34">
         <v>40238</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="34">
         <v>44409</v>
       </c>
-      <c r="H5" s="14">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15">
+      <c r="H5" s="35">
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="I5" s="36">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="E6" s="19">
+        <v>7344328.2699999996</v>
+      </c>
+      <c r="F6" s="12">
+        <v>39995</v>
+      </c>
+      <c r="G6" s="12">
+        <v>44743</v>
+      </c>
+      <c r="H6" s="31">
+        <v>2.2500000000000003E-2</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19">
+        <v>7172290.1900000004</v>
+      </c>
+      <c r="F7" s="12">
+        <v>41275</v>
+      </c>
+      <c r="G7" s="12">
+        <v>42979</v>
+      </c>
+      <c r="H7" s="31">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J5" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="E6" s="20">
-        <v>7344328.2699999996</v>
-      </c>
-      <c r="F6" s="13">
-        <v>39995</v>
-      </c>
-      <c r="G6" s="13">
-        <v>44743</v>
-      </c>
-      <c r="H6" s="14">
-        <v>3</v>
-      </c>
-      <c r="I6" s="15">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J6" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>7172290.1900000004</v>
-      </c>
-      <c r="F7" s="13">
-        <v>41275</v>
-      </c>
-      <c r="G7" s="13">
-        <v>42979</v>
-      </c>
-      <c r="H7" s="14">
-        <v>6</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="13">
         <v>0.4</v>
       </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="10">
         <v>41993</v>
       </c>
       <c r="C8" s="7">
-        <v>1.49E-2</v>
-      </c>
-      <c r="E8" s="20">
+        <v>0.97215972701501396</v>
+      </c>
+      <c r="E8" s="19">
         <v>7065224.2300000004</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>40238</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>41913</v>
       </c>
-      <c r="H8" s="14">
-        <v>6</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="H8" s="31">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J8" s="13">
         <v>0.4</v>
       </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="10">
         <v>42358</v>
       </c>
       <c r="C9" s="7">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E9" s="20">
+        <v>0.94292632917440633</v>
+      </c>
+      <c r="E9" s="19">
         <v>5256452.1399999997</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>40725</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>42461</v>
       </c>
-      <c r="H9" s="14">
-        <v>6</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="H9" s="31">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="13">
         <v>0.4</v>
       </c>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="10">
         <v>42724</v>
       </c>
       <c r="C10" s="7">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="E10" s="20">
+        <v>0.91344805625013747</v>
+      </c>
+      <c r="E10" s="19">
         <v>2689680.89</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>40057</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>45474</v>
       </c>
-      <c r="H10" s="14">
-        <v>6</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="H10" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J10" s="13">
         <v>0.6</v>
       </c>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="10">
         <v>43454</v>
       </c>
       <c r="C11" s="7">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="E11" s="20">
+        <v>0.85564045281976642</v>
+      </c>
+      <c r="E11" s="19">
         <v>3593518.71</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>40360</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>43497</v>
       </c>
-      <c r="H11" s="14">
-        <v>12</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="H11" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J11" s="13">
         <v>0.6</v>
       </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="10">
-        <v>41628</v>
+        <v>45280</v>
       </c>
       <c r="C12" s="7">
-        <v>1.83E-2</v>
-      </c>
-      <c r="E12" s="20">
+        <v>0.73268777967546939</v>
+      </c>
+      <c r="E12" s="19">
         <v>6993589.5300000003</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>40544</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>43405</v>
       </c>
-      <c r="H12" s="14">
-        <v>12</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="H12" s="31">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J12" s="13">
         <v>0.6</v>
       </c>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="11">
         <v>48933</v>
       </c>
       <c r="C13" s="9">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E13" s="20">
+        <v>0.53904601648775841</v>
+      </c>
+      <c r="E13" s="19">
         <v>6684377.5199999996</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>40057</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>44440</v>
       </c>
-      <c r="H13" s="14">
-        <v>12</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="H13" s="31">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J13" s="13">
         <v>0.6</v>
       </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="E14" s="20">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14" s="19">
         <v>6896199.04</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>40360</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>43405</v>
       </c>
-      <c r="H14" s="14">
-        <v>12</v>
-      </c>
-      <c r="I14" s="15">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="H14" s="31">
+        <v>2.35E-2</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1.35E-2</v>
+      </c>
+      <c r="J14" s="13">
         <v>0.4</v>
       </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="31" t="s">
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="E15" s="20">
+      <c r="C15" s="30"/>
+      <c r="E15" s="19">
         <v>2587984.6</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>40817</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>44105</v>
       </c>
-      <c r="H15" s="14">
-        <v>12</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="H15" s="31">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J15" s="13">
         <v>0.4</v>
       </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="16" t="s">
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>3621656.1</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>41061</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>42552</v>
       </c>
-      <c r="H16" s="14">
-        <v>6</v>
-      </c>
-      <c r="I16" s="15">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="H16" s="31">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1.35E-2</v>
+      </c>
+      <c r="J16" s="13">
         <v>0.4</v>
       </c>
-      <c r="K16" s="21"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>1.06E-3</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>3146567.47</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>40695</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>44621</v>
       </c>
-      <c r="H17" s="14">
-        <v>6</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="H17" s="31">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I17" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J17" s="13">
         <v>0.2</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>1.14E-3</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>6452721.6100000003</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>39904</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>43556</v>
       </c>
-      <c r="H18" s="14">
-        <v>3</v>
-      </c>
-      <c r="I18" s="15">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="H18" s="31">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="I18" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J18" s="13">
         <v>0.2</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>1.15E-3</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>3418346.24</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>40299</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>42370</v>
       </c>
-      <c r="H19" s="24">
-        <v>3</v>
-      </c>
-      <c r="I19" s="25">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J19" s="24">
+      <c r="H19" s="32">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="I19" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J19" s="23">
         <v>0.2</v>
       </c>
-      <c r="K19" s="26"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>1.17E-3</v>
       </c>
     </row>
@@ -1089,7 +1183,7 @@
       <c r="B21" s="6">
         <v>5</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
@@ -1097,7 +1191,7 @@
       <c r="B22" s="6">
         <v>6</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
@@ -1105,7 +1199,7 @@
       <c r="B23" s="6">
         <v>7</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>1.2199999999999999E-3</v>
       </c>
     </row>
@@ -1113,7 +1207,7 @@
       <c r="B24" s="6">
         <v>8</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>1.24E-3</v>
       </c>
     </row>
@@ -1121,7 +1215,7 @@
       <c r="B25" s="6">
         <v>9</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
@@ -1129,7 +1223,7 @@
       <c r="B26" s="6">
         <v>10</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>1.31E-3</v>
       </c>
     </row>
@@ -1137,7 +1231,7 @@
       <c r="B27" s="6">
         <v>11</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
@@ -1145,7 +1239,7 @@
       <c r="B28" s="6">
         <v>12</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>1.3799999999999999E-3</v>
       </c>
     </row>
@@ -1153,7 +1247,7 @@
       <c r="B29" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>1.5200000000000001E-3</v>
       </c>
     </row>
@@ -1161,7 +1255,7 @@
       <c r="B30" s="6">
         <v>18</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>1.66E-3</v>
       </c>
     </row>
@@ -1169,7 +1263,7 @@
       <c r="B31" s="6">
         <v>21</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>1.8400000000000001E-3</v>
       </c>
     </row>
@@ -1177,7 +1271,7 @@
       <c r="B32" s="6">
         <v>24</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
@@ -1185,7 +1279,7 @@
       <c r="B33" s="6">
         <v>36</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>3.4399999999999999E-3</v>
       </c>
     </row>
@@ -1193,7 +1287,7 @@
       <c r="B34" s="6">
         <v>48</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>5.4300000000000008E-3</v>
       </c>
     </row>
@@ -1201,7 +1295,7 @@
       <c r="B35" s="6">
         <v>60</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>7.5599999999999999E-3</v>
       </c>
     </row>
@@ -1209,7 +1303,7 @@
       <c r="B36" s="6">
         <v>72</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>9.6699999999999998E-3</v>
       </c>
     </row>
@@ -1217,7 +1311,7 @@
       <c r="B37" s="6">
         <v>84</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>1.162E-2</v>
       </c>
     </row>
@@ -1225,7 +1319,7 @@
       <c r="B38" s="6">
         <v>96</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>1.34E-2</v>
       </c>
     </row>
@@ -1233,7 +1327,7 @@
       <c r="B39" s="6">
         <v>108</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>1.502E-2</v>
       </c>
     </row>
@@ -1241,7 +1335,7 @@
       <c r="B40" s="6">
         <v>120</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>1.6490000000000001E-2</v>
       </c>
     </row>
@@ -1249,7 +1343,7 @@
       <c r="B41" s="6">
         <v>132</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>1.7760000000000001E-2</v>
       </c>
     </row>
@@ -1257,7 +1351,7 @@
       <c r="B42" s="6">
         <v>144</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>1.8880000000000001E-2</v>
       </c>
     </row>
@@ -1265,7 +1359,7 @@
       <c r="B43" s="6">
         <v>180</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <v>2.137E-2</v>
       </c>
     </row>
@@ -1273,7 +1367,7 @@
       <c r="B44" s="6">
         <v>240</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>2.3220000000000001E-2</v>
       </c>
     </row>
@@ -1281,7 +1375,7 @@
       <c r="B45" s="6">
         <v>300</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>2.3890000000000002E-2</v>
       </c>
     </row>
@@ -1289,22 +1383,22 @@
       <c r="B46" s="8">
         <v>360</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
         <v>2.4160000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="41"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="C48" s="31"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -1312,7 +1406,7 @@
         <f>today</f>
         <v>41578</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1321,7 +1415,7 @@
         <f>EDATE(B50,6)</f>
         <v>41759</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
@@ -1330,7 +1424,7 @@
         <f t="shared" ref="B52:B79" si="0">EDATE(B51,6)</f>
         <v>41942</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>6.6E-3</v>
       </c>
     </row>
@@ -1339,7 +1433,7 @@
         <f t="shared" si="0"/>
         <v>42124</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
@@ -1348,7 +1442,7 @@
         <f t="shared" si="0"/>
         <v>42307</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -1357,7 +1451,7 @@
         <f t="shared" si="0"/>
         <v>42490</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -1366,7 +1460,7 @@
         <f t="shared" si="0"/>
         <v>42673</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
@@ -1375,7 +1469,7 @@
         <f t="shared" si="0"/>
         <v>42855</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <v>1.06E-2</v>
       </c>
     </row>
@@ -1384,7 +1478,7 @@
         <f t="shared" si="0"/>
         <v>43038</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <v>1.14E-2</v>
       </c>
     </row>
@@ -1393,7 +1487,7 @@
         <f t="shared" si="0"/>
         <v>43220</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -1402,7 +1496,7 @@
         <f t="shared" si="0"/>
         <v>43403</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -1411,7 +1505,7 @@
         <f t="shared" si="0"/>
         <v>43585</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>1.38E-2</v>
       </c>
     </row>
@@ -1420,7 +1514,7 @@
         <f t="shared" si="0"/>
         <v>43768</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <v>1.46E-2</v>
       </c>
     </row>
@@ -1429,7 +1523,7 @@
         <f t="shared" si="0"/>
         <v>43951</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="17">
         <v>1.54E-2</v>
       </c>
     </row>
@@ -1438,7 +1532,7 @@
         <f t="shared" si="0"/>
         <v>44134</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="17">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
@@ -1447,7 +1541,7 @@
         <f t="shared" si="0"/>
         <v>44316</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="17">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -1456,7 +1550,7 @@
         <f t="shared" si="0"/>
         <v>44499</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="17">
         <v>1.78E-2</v>
       </c>
     </row>
@@ -1465,7 +1559,7 @@
         <f t="shared" si="0"/>
         <v>44681</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
@@ -1474,7 +1568,7 @@
         <f t="shared" si="0"/>
         <v>44864</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="17">
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
@@ -1483,7 +1577,7 @@
         <f t="shared" si="0"/>
         <v>45046</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="17">
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
@@ -1492,7 +1586,7 @@
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
@@ -1501,7 +1595,7 @@
         <f t="shared" si="0"/>
         <v>45412</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <v>2.18E-2</v>
       </c>
     </row>
@@ -1510,7 +1604,7 @@
         <f t="shared" si="0"/>
         <v>45595</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="17">
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
@@ -1519,7 +1613,7 @@
         <f t="shared" si="0"/>
         <v>45777</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="17">
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
@@ -1528,7 +1622,7 @@
         <f t="shared" si="0"/>
         <v>45960</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="17">
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
@@ -1537,7 +1631,7 @@
         <f t="shared" si="0"/>
         <v>46142</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1546,7 +1640,7 @@
         <f t="shared" si="0"/>
         <v>46325</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="17">
         <v>2.58E-2</v>
       </c>
     </row>
@@ -1555,7 +1649,7 @@
         <f t="shared" si="0"/>
         <v>46507</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="17">
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
@@ -1564,7 +1658,7 @@
         <f t="shared" si="0"/>
         <v>46690</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="17">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
@@ -1573,15 +1667,17 @@
         <f t="shared" si="0"/>
         <v>46873</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="17">
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>